--- a/data/trans_camb/P25A_12_R2-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P25A_12_R2-Edad-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,5</t>
+          <t>-3,08</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,69</t>
+          <t>-3,08</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,4</t>
+          <t>-3,08</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,52</t>
+          <t>6,8</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,37</t>
+          <t>2,61</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-0,27</t>
+          <t>10,16</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>2,09</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-0,35</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>3,48</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,59; 3,39</t>
+          <t>-17,25; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-8,0; 2,11</t>
+          <t>-17,25; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,24; 12,35</t>
+          <t>-17,25; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 8,5</t>
+          <t>-2,32; 19,04</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 6,19</t>
+          <t>-5,92; 12,08</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-4,14; 3,48</t>
+          <t>-0,54; 22,03</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-3,65; 8,83</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-6,61; 4,36</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-2,91; 10,07</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-48,57%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-54,78%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>126,13%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>43,59%</t>
+          <t>169,74%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>41,67%</t>
+          <t>65,26%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-8,19%</t>
+          <t>253,59%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>58,22%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-9,75%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>96,87%</t>
         </is>
       </c>
     </row>
@@ -725,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-54,46; 1070,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -735,12 +811,27 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-63,74; 564,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-81,71; 323,23</t>
+          <t>-40,98; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-60,11; —</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,17</t>
+          <t>0,52</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,73</t>
+          <t>-0,41</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,56</t>
+          <t>-0,71</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-2,71</t>
+          <t>1,52</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,29</t>
+          <t>-2,02</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-1,81</t>
+          <t>5,22</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>0,99</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-1,13</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>1,77</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,46; 6,74</t>
+          <t>-10,6; 11,43</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,59; 4,21</t>
+          <t>-10,16; 9,12</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,38; 7,23</t>
+          <t>-10,91; 8,11</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-11,55; 3,42</t>
+          <t>-11,12; 10,03</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,51; 5,25</t>
+          <t>-14,26; 4,95</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-7,59; 2,18</t>
+          <t>-6,58; 16,0</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-6,65; 7,41</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-8,31; 4,72</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-5,51; 8,39</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,6%</t>
+          <t>9,26%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-19,86%</t>
+          <t>-7,31%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>8,5%</t>
+          <t>-12,78%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-41,01%</t>
+          <t>27,9%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>5,56%</t>
+          <t>-37,15%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-34,82%</t>
+          <t>96,05%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>18,04%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-20,48%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>32,14%</t>
         </is>
       </c>
     </row>
@@ -881,22 +1017,37 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-79,14; 323,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 200,8</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-69,16; 222,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-83,54; 98,46</t>
+          <t>-84,58; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-75,09; 333,43</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-87,1; 242,59</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-64,82; 377,5</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>1,77</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1,97</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>2,53</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0,99</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0,79</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
           <t>2,16</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,01</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>4,0</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>1,5</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>3,16</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>0,7</t>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0,38</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0,94</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 6,43</t>
+          <t>0,0; 8,83</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,6; 2,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 10,59</t>
+          <t>0,0; 10,88</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,33; 7,24</t>
+          <t>-5,24; 9,47</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 7,42</t>
+          <t>-6,21; 7,74</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 4,34</t>
+          <t>-6,31; 7,93</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-2,94; 7,04</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-4,31; 4,53</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-3,4; 5,97</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>149,89%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,95%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>63,17%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>23,72%</t>
+          <t>36,54%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>78,9%</t>
+          <t>14,38%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>17,48%</t>
+          <t>11,36%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>50,33%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>8,95%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>21,94%</t>
         </is>
       </c>
     </row>
@@ -1037,22 +1233,37 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-26,26; 270,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-50,41; 185,88</t>
+          <t>-54,99; 279,88</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-9,07; 309,89</t>
+          <t>-62,25; 258,05</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-50,38; 170,78</t>
+          <t>-66,53; 240,81</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-54,97; 292,86</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-66,43; 195,55</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-57,01; 282,94</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,52</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>3,25</t>
+          <t>2,47</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-1,52</t>
+          <t>6,16</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,23</t>
+          <t>-0,94</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,17</t>
+          <t>-2,08</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,54</t>
+          <t>3,5</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>-0,5</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>-0,01</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>4,6</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,76; 6,12</t>
+          <t>-5,4; 6,42</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 8,62</t>
+          <t>-3,74; 10,05</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-7,73; 4,47</t>
+          <t>-0,31; 15,26</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-6,14; 6,25</t>
+          <t>-10,25; 7,82</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,0; 3,67</t>
+          <t>-10,81; 6,26</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 5,77</t>
+          <t>-5,85; 13,99</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-6,03; 5,34</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-5,36; 5,83</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-1,42; 11,11</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>52,31%</t>
+          <t>0,55%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>111,8%</t>
+          <t>64,5%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-16,32%</t>
+          <t>160,46%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>2,49%</t>
+          <t>-7,8%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-2,65%</t>
+          <t>-17,26%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>23,85%</t>
+          <t>29,04%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>-6,07%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>-0,12%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>55,89%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-74,99; 527,98</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-45,19; 701,53</t>
+          <t>-66,83; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-62,34; 71,26</t>
+          <t>-33,04; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-49,38; 106,07</t>
+          <t>-61,96; 112,48</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-48,82; 84,24</t>
+          <t>-65,35; 92,44</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-32,74; 133,06</t>
+          <t>-40,16; 210,5</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-55,71; 97,27</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-49,36; 121,26</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>-15,69; 207,7</t>
         </is>
       </c>
     </row>
@@ -1225,32 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-1,43</t>
+          <t>-3,24</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>1,08</t>
+          <t>-1,63</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,68</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>1,42</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-0,45</t>
+          <t>5,49</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>1,27</t>
+          <t>4,97</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-1,82</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>1,43</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>2,4</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-6,81; 2,85</t>
+          <t>-11,79; 3,34</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-4,57; 6,19</t>
+          <t>-10,11; 6,58</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-6,6; 8,6</t>
+          <t>-8,47; 8,91</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-6,26; 8,88</t>
+          <t>-9,03; 10,34</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-4,75; 4,09</t>
+          <t>-5,7; 16,27</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-3,3; 6,17</t>
+          <t>-5,81; 16,3</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-7,67; 3,99</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-4,92; 8,43</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-4,23; 9,39</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-33,23%</t>
+          <t>-45,55%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>25,13%</t>
+          <t>-22,91%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>8,16%</t>
+          <t>0,92%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>16,95%</t>
+          <t>3,83%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-7,17%</t>
+          <t>75,17%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>20,42%</t>
+          <t>68,03%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-25,24%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>19,84%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>33,36%</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-89,64; 172,62</t>
+          <t>-100,0; 217,29</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-71,53; 304,13</t>
+          <t>-85,49; 305,43</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-57,55; 164,21</t>
+          <t>-79,62; 333,07</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-55,95; 183,46</t>
+          <t>-83,97; 495,26</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-56,18; 104,65</t>
+          <t>-59,5; 611,16</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-42,67; 150,73</t>
+          <t>-64,13; 677,19</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-74,48; 112,21</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-50,03; 220,49</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-42,96; 230,36</t>
         </is>
       </c>
     </row>
@@ -1381,32 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>1,62</t>
+          <t>-3,17</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>-0,05</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-2,69</t>
+          <t>3,87</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>2,61</t>
+          <t>2,49</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-0,8</t>
+          <t>2,19</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>1,78</t>
+          <t>0,63</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>-0,07</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>1,19</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>1,89</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-2,72; 7,86</t>
+          <t>-15,59; 0,0</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-2,79; 4,63</t>
+          <t>-9,73; 6,28</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-16,15; 2,7</t>
+          <t>-6,76; 13,42</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-7,89; 14,72</t>
+          <t>-3,79; 12,78</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-7,18; 2,92</t>
+          <t>-4,78; 10,92</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-4,89; 8,26</t>
+          <t>-4,82; 10,0</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>-4,68; 5,49</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>-3,87; 7,41</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>-3,6; 8,58</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>117,87%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>11,05%</t>
+          <t>-1,48%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-47,36%</t>
+          <t>122,02%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>45,97%</t>
+          <t>105,83%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-21,13%</t>
+          <t>93,2%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>47,07%</t>
+          <t>26,96%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>-2,63%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>43,89%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>69,63%</t>
         </is>
       </c>
     </row>
@@ -1510,17 +1886,32 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-90,85; 1020,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 273,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-82,38; 550,87</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1537,32 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,52</t>
+          <t>-0,95</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,36</t>
+          <t>-0,4</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,88</t>
+          <t>1,42</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,7</t>
+          <t>2,04</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,68</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,46</t>
+          <t>3,37</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>0,57</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>0,11</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>2,36</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 2,39</t>
+          <t>-4,0; 1,74</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 2,13</t>
+          <t>-3,67; 2,16</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 3,71</t>
+          <t>-1,85; 4,79</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 3,93</t>
+          <t>-1,76; 5,87</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 2,42</t>
+          <t>-2,84; 4,5</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 2,17</t>
+          <t>-0,82; 7,24</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>-2,04; 2,94</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>-2,31; 2,51</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>-0,08; 4,96</t>
         </is>
       </c>
     </row>
@@ -1613,32 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>19,0%</t>
+          <t>-24,51%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>13,05%</t>
+          <t>-10,37%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>12,86%</t>
+          <t>36,74%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>10,26%</t>
+          <t>29,93%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>13,91%</t>
+          <t>10,99%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>9,38%</t>
+          <t>49,57%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>10,53%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>2,02%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>43,29%</t>
         </is>
       </c>
     </row>
@@ -1651,43 +2087,65 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-40,96; 129,46</t>
+          <t>-68,7; 81,12</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-42,75; 119,83</t>
+          <t>-65,94; 85,14</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-25,04; 69,02</t>
+          <t>-37,18; 198,64</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-30,12; 71,15</t>
+          <t>-20,72; 116,83</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-23,1; 60,44</t>
+          <t>-34,42; 92,25</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-22,34; 55,69</t>
+          <t>-9,74; 141,63</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-30,12; 73,69</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-33,47; 61,46</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>-0,96; 117,95</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
